--- a/output/eurostat/annual_households_gas_space_heating_bcm.xlsx
+++ b/output/eurostat/annual_households_gas_space_heating_bcm.xlsx
@@ -791,19 +791,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.422154679295637</v>
+        <v>6.422154679295639</v>
       </c>
       <c r="C6" t="n">
-        <v>7.140425895271836</v>
+        <v>7.140425895271838</v>
       </c>
       <c r="D6" t="n">
-        <v>7.891988241252434</v>
+        <v>7.891988241252436</v>
       </c>
       <c r="E6" t="n">
-        <v>8.677027708492842</v>
+        <v>8.677027708492846</v>
       </c>
       <c r="F6" t="n">
-        <v>9.493987738313395</v>
+        <v>9.493987738313397</v>
       </c>
       <c r="G6" t="n">
         <v>10.34205257199708</v>
@@ -818,19 +818,19 @@
         <v>13.06275982259306</v>
       </c>
       <c r="K6" t="n">
-        <v>14.0221726095723</v>
+        <v>14.02217260957231</v>
       </c>
       <c r="L6" t="n">
         <v>15.00131506197737</v>
       </c>
       <c r="M6" t="n">
-        <v>15.99807700364837</v>
+        <v>15.99807700364838</v>
       </c>
       <c r="N6" t="n">
-        <v>17.01271429585099</v>
+        <v>17.012714295851</v>
       </c>
       <c r="O6" t="n">
-        <v>18.04500922159528</v>
+        <v>18.04500922159529</v>
       </c>
       <c r="P6" t="n">
         <v>19.09191921805479</v>
@@ -839,16 +839,16 @@
         <v>20.1537897375209</v>
       </c>
       <c r="R6" t="n">
-        <v>21.22848562151016</v>
+        <v>21.22848562151017</v>
       </c>
       <c r="S6" t="n">
-        <v>22.31626938068966</v>
+        <v>22.31626938068967</v>
       </c>
       <c r="T6" t="n">
-        <v>23.41695168223242</v>
+        <v>23.41695168223243</v>
       </c>
       <c r="U6" t="n">
-        <v>24.52663296060317</v>
+        <v>24.52663296060318</v>
       </c>
       <c r="V6" t="n">
         <v>25.64379424935992</v>
@@ -1351,19 +1351,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.164539988404754</v>
+        <v>1.164539988404755</v>
       </c>
       <c r="C14" t="n">
-        <v>1.25291217929883</v>
+        <v>1.252912179298831</v>
       </c>
       <c r="D14" t="n">
-        <v>1.343923836775098</v>
+        <v>1.343923836775099</v>
       </c>
       <c r="E14" t="n">
         <v>1.43715014837684</v>
       </c>
       <c r="F14" t="n">
-        <v>1.532507812946766</v>
+        <v>1.532507812946767</v>
       </c>
       <c r="G14" t="n">
         <v>1.629943825858567</v>
@@ -1375,7 +1375,7 @@
         <v>1.8301232531855</v>
       </c>
       <c r="J14" t="n">
-        <v>1.932673107398257</v>
+        <v>1.932673107398258</v>
       </c>
       <c r="K14" t="n">
         <v>2.036896908401725</v>
@@ -1384,10 +1384,10 @@
         <v>2.142385681890213</v>
       </c>
       <c r="M14" t="n">
-        <v>2.24909766171391</v>
+        <v>2.249097661713911</v>
       </c>
       <c r="N14" t="n">
-        <v>2.356843611579694</v>
+        <v>2.356843611579695</v>
       </c>
       <c r="O14" t="n">
         <v>2.465895331336133</v>
@@ -1399,19 +1399,19 @@
         <v>2.687338189164165</v>
       </c>
       <c r="R14" t="n">
-        <v>2.799334319653007</v>
+        <v>2.799334319653008</v>
       </c>
       <c r="S14" t="n">
-        <v>2.912007936274728</v>
+        <v>2.91200793627473</v>
       </c>
       <c r="T14" t="n">
         <v>3.02545569429912</v>
       </c>
       <c r="U14" t="n">
-        <v>3.139404551401193</v>
+        <v>3.139404551401194</v>
       </c>
       <c r="V14" t="n">
-        <v>3.253715020522931</v>
+        <v>3.253715020522932</v>
       </c>
     </row>
     <row r="15">
@@ -1707,7 +1707,7 @@
         <v>1.924499219227576</v>
       </c>
       <c r="D19" t="n">
-        <v>2.181489382567712</v>
+        <v>2.181489382567713</v>
       </c>
       <c r="E19" t="n">
         <v>2.452476806959324</v>
@@ -1716,52 +1716,52 @@
         <v>2.735156376582471</v>
       </c>
       <c r="G19" t="n">
-        <v>3.030303999603908</v>
+        <v>3.030303999603909</v>
       </c>
       <c r="H19" t="n">
-        <v>3.336787636897338</v>
+        <v>3.336787636897339</v>
       </c>
       <c r="I19" t="n">
         <v>3.653618325641838</v>
       </c>
       <c r="J19" t="n">
-        <v>3.981129575205964</v>
+        <v>3.981129575205965</v>
       </c>
       <c r="K19" t="n">
-        <v>4.317022276322285</v>
+        <v>4.317022276322287</v>
       </c>
       <c r="L19" t="n">
         <v>4.659230088887441</v>
       </c>
       <c r="M19" t="n">
-        <v>5.008136499636987</v>
+        <v>5.008136499636988</v>
       </c>
       <c r="N19" t="n">
-        <v>5.363058063617398</v>
+        <v>5.3630580636174</v>
       </c>
       <c r="O19" t="n">
-        <v>5.72444278986674</v>
+        <v>5.724442789866741</v>
       </c>
       <c r="P19" t="n">
-        <v>6.091248077783568</v>
+        <v>6.09124807778357</v>
       </c>
       <c r="Q19" t="n">
-        <v>6.463132344217538</v>
+        <v>6.46313234421754</v>
       </c>
       <c r="R19" t="n">
         <v>6.83822797842243</v>
       </c>
       <c r="S19" t="n">
-        <v>7.215727021585152</v>
+        <v>7.215727021585153</v>
       </c>
       <c r="T19" t="n">
-        <v>7.595529483240285</v>
+        <v>7.595529483240287</v>
       </c>
       <c r="U19" t="n">
-        <v>7.976803804817141</v>
+        <v>7.976803804817142</v>
       </c>
       <c r="V19" t="n">
-        <v>8.359517189662647</v>
+        <v>8.359517189662649</v>
       </c>
     </row>
     <row r="20">
@@ -1771,67 +1771,67 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8594065693384094</v>
+        <v>0.8594065693384089</v>
       </c>
       <c r="C20" t="n">
-        <v>0.928912722115713</v>
+        <v>0.9289127221157123</v>
       </c>
       <c r="D20" t="n">
-        <v>1.000640479586197</v>
+        <v>1.000640479586196</v>
       </c>
       <c r="E20" t="n">
         <v>1.074461918632049</v>
       </c>
       <c r="F20" t="n">
-        <v>1.15051468114355</v>
+        <v>1.150514681143549</v>
       </c>
       <c r="G20" t="n">
-        <v>1.228600504082907</v>
+        <v>1.228600504082906</v>
       </c>
       <c r="H20" t="n">
-        <v>1.3085871733554</v>
+        <v>1.308587173355399</v>
       </c>
       <c r="I20" t="n">
-        <v>1.390400060366719</v>
+        <v>1.390400060366718</v>
       </c>
       <c r="J20" t="n">
-        <v>1.473898145076514</v>
+        <v>1.473898145076513</v>
       </c>
       <c r="K20" t="n">
-        <v>1.558983729023729</v>
+        <v>1.558983729023727</v>
       </c>
       <c r="L20" t="n">
-        <v>1.645754765045925</v>
+        <v>1.645754765045924</v>
       </c>
       <c r="M20" t="n">
-        <v>1.733832954696768</v>
+        <v>1.733832954696767</v>
       </c>
       <c r="N20" t="n">
-        <v>1.823126302073711</v>
+        <v>1.82312630207371</v>
       </c>
       <c r="O20" t="n">
-        <v>1.913589773803105</v>
+        <v>1.913589773803104</v>
       </c>
       <c r="P20" t="n">
-        <v>2.005086650890068</v>
+        <v>2.005086650890066</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.097697794543123</v>
+        <v>2.097697794543121</v>
       </c>
       <c r="R20" t="n">
-        <v>2.191187612264847</v>
+        <v>2.191187612264846</v>
       </c>
       <c r="S20" t="n">
-        <v>2.285470234933204</v>
+        <v>2.285470234933202</v>
       </c>
       <c r="T20" t="n">
-        <v>2.380430790723211</v>
+        <v>2.38043079072321</v>
       </c>
       <c r="U20" t="n">
-        <v>2.475872107103959</v>
+        <v>2.475872107103957</v>
       </c>
       <c r="V20" t="n">
-        <v>2.571802943636958</v>
+        <v>2.571802943636956</v>
       </c>
     </row>
     <row r="21">
@@ -1911,19 +1911,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.03392879451929098</v>
+        <v>0.03392879451929097</v>
       </c>
       <c r="C22" t="n">
         <v>0.03670309765274413</v>
       </c>
       <c r="D22" t="n">
-        <v>0.03955612306810769</v>
+        <v>0.03955612306810768</v>
       </c>
       <c r="E22" t="n">
         <v>0.04247765892009565</v>
       </c>
       <c r="F22" t="n">
-        <v>0.04546122370176913</v>
+        <v>0.04546122370176912</v>
       </c>
       <c r="G22" t="n">
         <v>0.04849667518569156</v>
@@ -1932,46 +1932,46 @@
         <v>0.05160027612654906</v>
       </c>
       <c r="I22" t="n">
-        <v>0.05477335464492236</v>
+        <v>0.05477335464492235</v>
       </c>
       <c r="J22" t="n">
         <v>0.05800683270001548</v>
       </c>
       <c r="K22" t="n">
-        <v>0.06129574182348166</v>
+        <v>0.06129574182348165</v>
       </c>
       <c r="L22" t="n">
-        <v>0.06464128047740549</v>
+        <v>0.06464128047740547</v>
       </c>
       <c r="M22" t="n">
         <v>0.06802255254787157</v>
       </c>
       <c r="N22" t="n">
-        <v>0.07144186766724618</v>
+        <v>0.07144186766724617</v>
       </c>
       <c r="O22" t="n">
-        <v>0.07490196772120487</v>
+        <v>0.07490196772120486</v>
       </c>
       <c r="P22" t="n">
-        <v>0.07840163294388794</v>
+        <v>0.0784016329438879</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.08192728906737867</v>
+        <v>0.08192728906737864</v>
       </c>
       <c r="R22" t="n">
         <v>0.08547496569397381</v>
       </c>
       <c r="S22" t="n">
-        <v>0.08903781947678646</v>
+        <v>0.08903781947678645</v>
       </c>
       <c r="T22" t="n">
-        <v>0.0926140226455654</v>
+        <v>0.09261402264556537</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09620184497821933</v>
+        <v>0.09620184497821932</v>
       </c>
       <c r="V22" t="n">
-        <v>0.09980141494105922</v>
+        <v>0.09980141494105921</v>
       </c>
     </row>
     <row r="23">
@@ -2191,67 +2191,67 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0951904371514479</v>
+        <v>0.09519043715144784</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1053597145950161</v>
+        <v>0.105359714595016</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1159254735094791</v>
+        <v>0.115925473509479</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1269003353822772</v>
+        <v>0.1269003353822771</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1382752564895703</v>
+        <v>0.1382752564895702</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1500558054715288</v>
+        <v>0.1500558054715287</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1622398410757827</v>
+        <v>0.1622398410757826</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1747561337578689</v>
+        <v>0.1747561337578688</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1876387126018941</v>
+        <v>0.187638712601894</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2008161539356522</v>
+        <v>0.2008161539356521</v>
       </c>
       <c r="L26" t="n">
-        <v>0.2143217063272999</v>
+        <v>0.2143217063272997</v>
       </c>
       <c r="M26" t="n">
-        <v>0.2281271948486967</v>
+        <v>0.2281271948486965</v>
       </c>
       <c r="N26" t="n">
-        <v>0.2422291370298599</v>
+        <v>0.2422291370298598</v>
       </c>
       <c r="O26" t="n">
-        <v>0.2566216933001509</v>
+        <v>0.2566216933001508</v>
       </c>
       <c r="P26" t="n">
-        <v>0.2712617598339697</v>
+        <v>0.2712617598339696</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.2860998486145219</v>
+        <v>0.2860998486145218</v>
       </c>
       <c r="R26" t="n">
-        <v>0.3010941939318331</v>
+        <v>0.301094193931833</v>
       </c>
       <c r="S26" t="n">
-        <v>0.3162286396716712</v>
+        <v>0.316228639671671</v>
       </c>
       <c r="T26" t="n">
-        <v>0.331503947518746</v>
+        <v>0.3315039475187458</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3469177408872697</v>
+        <v>0.3469177408872695</v>
       </c>
       <c r="V26" t="n">
-        <v>0.3624295248991891</v>
+        <v>0.3624295248991889</v>
       </c>
     </row>
     <row r="27">
@@ -2267,28 +2267,28 @@
         <v>0.001649012960079252</v>
       </c>
       <c r="D27" t="n">
-        <v>0.002175178653564344</v>
+        <v>0.002175178653564343</v>
       </c>
       <c r="E27" t="n">
         <v>0.002827788744045283</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003603391199039974</v>
+        <v>0.003603391199039973</v>
       </c>
       <c r="G27" t="n">
         <v>0.004500268773226539</v>
       </c>
       <c r="H27" t="n">
-        <v>0.005528415138780336</v>
+        <v>0.005528415138780335</v>
       </c>
       <c r="I27" t="n">
         <v>0.006687206806620475</v>
       </c>
       <c r="J27" t="n">
-        <v>0.007959532936448372</v>
+        <v>0.00795953293644837</v>
       </c>
       <c r="K27" t="n">
-        <v>0.009327246695321303</v>
+        <v>0.009327246695321301</v>
       </c>
       <c r="L27" t="n">
         <v>0.01078526573836493</v>
@@ -2297,7 +2297,7 @@
         <v>0.01232363254432631</v>
       </c>
       <c r="N27" t="n">
-        <v>0.01392569054257796</v>
+        <v>0.01392569054257795</v>
       </c>
       <c r="O27" t="n">
         <v>0.01556317119054055</v>
@@ -2835,7 +2835,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.282886223830243</v>
+        <v>7.282886223830246</v>
       </c>
       <c r="C6" t="n">
         <v>8.075129048156912</v>
@@ -2844,19 +2844,19 @@
         <v>8.897296809746418</v>
       </c>
       <c r="E6" t="n">
-        <v>9.749427975425174</v>
+        <v>9.749427975425176</v>
       </c>
       <c r="F6" t="n">
         <v>10.63065999623452</v>
       </c>
       <c r="G6" t="n">
-        <v>11.54180693464946</v>
+        <v>11.54180693464947</v>
       </c>
       <c r="H6" t="n">
         <v>12.47857715716975</v>
       </c>
       <c r="I6" t="n">
-        <v>13.43842448703789</v>
+        <v>13.4384244870379</v>
       </c>
       <c r="J6" t="n">
         <v>14.42211230183441</v>
@@ -2868,31 +2868,31 @@
         <v>16.45491991209104</v>
       </c>
       <c r="M6" t="n">
-        <v>17.49547976260355</v>
+        <v>17.49547976260356</v>
       </c>
       <c r="N6" t="n">
         <v>18.54981300287232</v>
       </c>
       <c r="O6" t="n">
-        <v>19.61626613674737</v>
+        <v>19.61626613674738</v>
       </c>
       <c r="P6" t="n">
-        <v>20.69332675126304</v>
+        <v>20.69332675126305</v>
       </c>
       <c r="Q6" t="n">
-        <v>21.78217079507198</v>
+        <v>21.78217079507199</v>
       </c>
       <c r="R6" t="n">
         <v>22.87992775413935</v>
       </c>
       <c r="S6" t="n">
-        <v>23.98391568253864</v>
+        <v>23.98391568253865</v>
       </c>
       <c r="T6" t="n">
         <v>25.09346910261248</v>
       </c>
       <c r="U6" t="n">
-        <v>26.20834812654858</v>
+        <v>26.20834812654859</v>
       </c>
       <c r="V6" t="n">
         <v>27.32890169582697</v>
@@ -3398,22 +3398,22 @@
         <v>1.425216903950239</v>
       </c>
       <c r="C14" t="n">
-        <v>1.518130492608479</v>
+        <v>1.51813049260848</v>
       </c>
       <c r="D14" t="n">
         <v>1.61305827488882</v>
       </c>
       <c r="E14" t="n">
-        <v>1.710072729766353</v>
+        <v>1.710072729766354</v>
       </c>
       <c r="F14" t="n">
         <v>1.809245382188436</v>
       </c>
       <c r="G14" t="n">
-        <v>1.910322469158975</v>
+        <v>1.910322469158976</v>
       </c>
       <c r="H14" t="n">
-        <v>2.01304477893505</v>
+        <v>2.013044778935051</v>
       </c>
       <c r="I14" t="n">
         <v>2.117366378090329</v>
@@ -3422,16 +3422,16 @@
         <v>2.223049763929543</v>
       </c>
       <c r="K14" t="n">
-        <v>2.330081790712552</v>
+        <v>2.330081790712553</v>
       </c>
       <c r="L14" t="n">
         <v>2.438095953109612</v>
       </c>
       <c r="M14" t="n">
-        <v>2.547032918948238</v>
+        <v>2.547032918948239</v>
       </c>
       <c r="N14" t="n">
-        <v>2.65687365846324</v>
+        <v>2.656873658463241</v>
       </c>
       <c r="O14" t="n">
         <v>2.767437382006948</v>
@@ -3440,7 +3440,7 @@
         <v>2.878619275518948</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.990422558499767</v>
+        <v>2.990422558499768</v>
       </c>
       <c r="R14" t="n">
         <v>3.102825657105182</v>
@@ -3452,10 +3452,10 @@
         <v>3.329126082924655</v>
       </c>
       <c r="U14" t="n">
-        <v>3.443019874941189</v>
+        <v>3.44301987494119</v>
       </c>
       <c r="V14" t="n">
-        <v>3.557518521716701</v>
+        <v>3.557518521716702</v>
       </c>
     </row>
     <row r="15">
@@ -3748,64 +3748,64 @@
         <v>2.12407325637396</v>
       </c>
       <c r="C19" t="n">
-        <v>2.403880598512254</v>
+        <v>2.403880598512255</v>
       </c>
       <c r="D19" t="n">
         <v>2.701152851378351</v>
       </c>
       <c r="E19" t="n">
-        <v>3.012438803280605</v>
+        <v>3.012438803280606</v>
       </c>
       <c r="F19" t="n">
-        <v>3.336246973815897</v>
+        <v>3.336246973815898</v>
       </c>
       <c r="G19" t="n">
-        <v>3.670129931094352</v>
+        <v>3.670129931094353</v>
       </c>
       <c r="H19" t="n">
-        <v>4.012284197018807</v>
+        <v>4.012284197018808</v>
       </c>
       <c r="I19" t="n">
-        <v>4.360783523041228</v>
+        <v>4.36078352304123</v>
       </c>
       <c r="J19" t="n">
-        <v>4.714503689037401</v>
+        <v>4.714503689037402</v>
       </c>
       <c r="K19" t="n">
-        <v>5.073023114213466</v>
+        <v>5.073023114213467</v>
       </c>
       <c r="L19" t="n">
         <v>5.43740060768231</v>
       </c>
       <c r="M19" t="n">
-        <v>5.806848021399279</v>
+        <v>5.80684802139928</v>
       </c>
       <c r="N19" t="n">
-        <v>6.182484715466435</v>
+        <v>6.182484715466437</v>
       </c>
       <c r="O19" t="n">
-        <v>6.562035442810736</v>
+        <v>6.562035442810738</v>
       </c>
       <c r="P19" t="n">
-        <v>6.943970952114065</v>
+        <v>6.943970952114067</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.327488464937767</v>
+        <v>7.327488464937769</v>
       </c>
       <c r="R19" t="n">
-        <v>7.712303721897682</v>
+        <v>7.712303721897684</v>
       </c>
       <c r="S19" t="n">
-        <v>8.098095441717275</v>
+        <v>8.098095441717277</v>
       </c>
       <c r="T19" t="n">
-        <v>8.484404593707142</v>
+        <v>8.484404593707144</v>
       </c>
       <c r="U19" t="n">
-        <v>8.870864359423482</v>
+        <v>8.870864359423486</v>
       </c>
       <c r="V19" t="n">
-        <v>9.257324125139821</v>
+        <v>9.257324125139823</v>
       </c>
     </row>
     <row r="20">
@@ -3815,67 +3815,67 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.025222811335212</v>
+        <v>1.025222811335211</v>
       </c>
       <c r="C20" t="n">
-        <v>1.090861715221545</v>
+        <v>1.090861715221544</v>
       </c>
       <c r="D20" t="n">
-        <v>1.158300271411745</v>
+        <v>1.158300271411744</v>
       </c>
       <c r="E20" t="n">
-        <v>1.227452214546863</v>
+        <v>1.227452214546862</v>
       </c>
       <c r="F20" t="n">
-        <v>1.298566214081625</v>
+        <v>1.298566214081624</v>
       </c>
       <c r="G20" t="n">
-        <v>1.371539846448055</v>
+        <v>1.371539846448053</v>
       </c>
       <c r="H20" t="n">
-        <v>1.446007748271073</v>
+        <v>1.446007748271072</v>
       </c>
       <c r="I20" t="n">
-        <v>1.522190728972586</v>
+        <v>1.522190728972584</v>
       </c>
       <c r="J20" t="n">
-        <v>1.600020651038549</v>
+        <v>1.600020651038548</v>
       </c>
       <c r="K20" t="n">
-        <v>1.679429738560114</v>
+        <v>1.679429738560113</v>
       </c>
       <c r="L20" t="n">
-        <v>1.76037235127258</v>
+        <v>1.760372351272579</v>
       </c>
       <c r="M20" t="n">
-        <v>1.842816974722356</v>
+        <v>1.842816974722354</v>
       </c>
       <c r="N20" t="n">
-        <v>1.926592991582911</v>
+        <v>1.926592991582909</v>
       </c>
       <c r="O20" t="n">
         <v>2.01180994796028</v>
       </c>
       <c r="P20" t="n">
-        <v>2.098282782020794</v>
+        <v>2.098282782020792</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.186067725884322</v>
+        <v>2.186067725884321</v>
       </c>
       <c r="R20" t="n">
-        <v>2.275017021377453</v>
+        <v>2.275017021377451</v>
       </c>
       <c r="S20" t="n">
-        <v>2.36498256528505</v>
+        <v>2.364982565285049</v>
       </c>
       <c r="T20" t="n">
-        <v>2.456010315668417</v>
+        <v>2.456010315668415</v>
       </c>
       <c r="U20" t="n">
-        <v>2.548059601747879</v>
+        <v>2.548059601747878</v>
       </c>
       <c r="V20" t="n">
-        <v>2.640880983539744</v>
+        <v>2.640880983539742</v>
       </c>
     </row>
     <row r="21">
@@ -3955,19 +3955,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.03392879451929098</v>
+        <v>0.03392879451929097</v>
       </c>
       <c r="C22" t="n">
         <v>0.03670309765274413</v>
       </c>
       <c r="D22" t="n">
-        <v>0.03955612306810769</v>
+        <v>0.03955612306810768</v>
       </c>
       <c r="E22" t="n">
         <v>0.04247765892009565</v>
       </c>
       <c r="F22" t="n">
-        <v>0.04546122370176913</v>
+        <v>0.04546122370176912</v>
       </c>
       <c r="G22" t="n">
         <v>0.04849667518569156</v>
@@ -3976,46 +3976,46 @@
         <v>0.05160027612654906</v>
       </c>
       <c r="I22" t="n">
-        <v>0.05477335464492236</v>
+        <v>0.05477335464492235</v>
       </c>
       <c r="J22" t="n">
         <v>0.05800683270001548</v>
       </c>
       <c r="K22" t="n">
-        <v>0.06129574182348166</v>
+        <v>0.06129574182348165</v>
       </c>
       <c r="L22" t="n">
-        <v>0.06464128047740549</v>
+        <v>0.06464128047740547</v>
       </c>
       <c r="M22" t="n">
         <v>0.06802255254787157</v>
       </c>
       <c r="N22" t="n">
-        <v>0.07144186766724618</v>
+        <v>0.07144186766724617</v>
       </c>
       <c r="O22" t="n">
-        <v>0.07490196772120487</v>
+        <v>0.07490196772120486</v>
       </c>
       <c r="P22" t="n">
-        <v>0.07840163294388794</v>
+        <v>0.0784016329438879</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.08192728906737867</v>
+        <v>0.08192728906737864</v>
       </c>
       <c r="R22" t="n">
         <v>0.08547496569397381</v>
       </c>
       <c r="S22" t="n">
-        <v>0.08903781947678646</v>
+        <v>0.08903781947678645</v>
       </c>
       <c r="T22" t="n">
-        <v>0.0926140226455654</v>
+        <v>0.09261402264556537</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09620184497821933</v>
+        <v>0.09620184497821932</v>
       </c>
       <c r="V22" t="n">
-        <v>0.09980141494105922</v>
+        <v>0.09980141494105921</v>
       </c>
     </row>
     <row r="23">
@@ -4235,67 +4235,67 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1180724317211395</v>
+        <v>0.1180724317211394</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1292598371181458</v>
+        <v>0.1292598371181457</v>
       </c>
       <c r="D26" t="n">
-        <v>0.140880940747098</v>
+        <v>0.1408809407470979</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1528868083215495</v>
+        <v>0.1528868083215494</v>
       </c>
       <c r="F26" t="n">
         <v>0.1652342561580047</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1779025452484807</v>
+        <v>0.1779025452484806</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1908896959103825</v>
+        <v>0.1908896959103824</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2042415295979381</v>
+        <v>0.204241529597938</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2178745370471068</v>
+        <v>0.2178745370471066</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2317658785782556</v>
+        <v>0.2317658785782555</v>
       </c>
       <c r="L26" t="n">
-        <v>0.2458509767823579</v>
+        <v>0.2458509767823578</v>
       </c>
       <c r="M26" t="n">
-        <v>0.2601391100555219</v>
+        <v>0.2601391100555217</v>
       </c>
       <c r="N26" t="n">
-        <v>0.2746173806554154</v>
+        <v>0.2746173806554152</v>
       </c>
       <c r="O26" t="n">
-        <v>0.2892746940059733</v>
+        <v>0.2892746940059732</v>
       </c>
       <c r="P26" t="n">
-        <v>0.3040927128918507</v>
+        <v>0.3040927128918505</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.3190853484544764</v>
+        <v>0.3190853484544762</v>
       </c>
       <c r="R26" t="n">
-        <v>0.3342354268251583</v>
+        <v>0.3342354268251581</v>
       </c>
       <c r="S26" t="n">
-        <v>0.3495410963776274</v>
+        <v>0.3495410963776273</v>
       </c>
       <c r="T26" t="n">
-        <v>0.3649778497016762</v>
+        <v>0.364977849701676</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3805305629407223</v>
+        <v>0.3805305629407221</v>
       </c>
       <c r="V26" t="n">
-        <v>0.3962055351988361</v>
+        <v>0.3962055351988358</v>
       </c>
     </row>
     <row r="27">
@@ -4314,13 +4314,13 @@
         <v>0.002053645011037661</v>
       </c>
       <c r="E27" t="n">
-        <v>0.002679876722559212</v>
+        <v>0.002679876722559211</v>
       </c>
       <c r="F27" t="n">
         <v>0.003451900680031747</v>
       </c>
       <c r="G27" t="n">
-        <v>0.004378277230512735</v>
+        <v>0.004378277230512733</v>
       </c>
       <c r="H27" t="n">
         <v>0.005441290553759022</v>
@@ -4332,10 +4332,10 @@
         <v>0.007953031295277167</v>
       </c>
       <c r="K27" t="n">
-        <v>0.00937094864265073</v>
+        <v>0.009370948642650728</v>
       </c>
       <c r="L27" t="n">
-        <v>0.01086395216240958</v>
+        <v>0.01086395216240957</v>
       </c>
       <c r="M27" t="n">
         <v>0.01241250255088</v>
@@ -4350,7 +4350,7 @@
         <v>0.01727867338696735</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.01895005498245442</v>
+        <v>0.01895005498245441</v>
       </c>
       <c r="R27" t="n">
         <v>0.02063892397286659</v>
@@ -4359,7 +4359,7 @@
         <v>0.02234760859591951</v>
       </c>
       <c r="T27" t="n">
-        <v>0.02407213431563179</v>
+        <v>0.02407213431563178</v>
       </c>
       <c r="U27" t="n">
         <v>0.0258075192211225</v>
@@ -4879,10 +4879,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.864629490465042</v>
+        <v>8.864629490465044</v>
       </c>
       <c r="C6" t="n">
-        <v>9.703768005437283</v>
+        <v>9.703768005437286</v>
       </c>
       <c r="D6" t="n">
         <v>10.56982844877895</v>
@@ -4894,7 +4894,7 @@
         <v>12.36621848469439</v>
       </c>
       <c r="G6" t="n">
-        <v>13.29746998814112</v>
+        <v>13.29746998814113</v>
       </c>
       <c r="H6" t="n">
         <v>14.25407440643046</v>
@@ -4906,25 +4906,25 @@
         <v>16.22146794559599</v>
       </c>
       <c r="K6" t="n">
-        <v>17.22882539742376</v>
+        <v>17.22882539742377</v>
       </c>
       <c r="L6" t="n">
         <v>18.25130543656869</v>
       </c>
       <c r="M6" t="n">
-        <v>19.29184078019331</v>
+        <v>19.29184078019332</v>
       </c>
       <c r="N6" t="n">
         <v>20.34821568331744</v>
       </c>
       <c r="O6" t="n">
-        <v>21.41798612221021</v>
+        <v>21.41798612221022</v>
       </c>
       <c r="P6" t="n">
-        <v>22.50079672961201</v>
+        <v>22.50079672961202</v>
       </c>
       <c r="Q6" t="n">
-        <v>23.59472988281514</v>
+        <v>23.59472988281515</v>
       </c>
       <c r="R6" t="n">
         <v>24.69806718363045</v>
@@ -4933,10 +4933,10 @@
         <v>25.80764744914993</v>
       </c>
       <c r="T6" t="n">
-        <v>26.92392817511578</v>
+        <v>26.92392817511579</v>
       </c>
       <c r="U6" t="n">
-        <v>28.04558480495655</v>
+        <v>28.04558480495656</v>
       </c>
       <c r="V6" t="n">
         <v>29.17230934170997</v>
@@ -5451,7 +5451,7 @@
         <v>2.014095714220546</v>
       </c>
       <c r="F14" t="n">
-        <v>2.117544405962345</v>
+        <v>2.117544405962346</v>
       </c>
       <c r="G14" t="n">
         <v>2.222228853205634</v>
@@ -5469,10 +5469,10 @@
         <v>2.651362152811375</v>
       </c>
       <c r="L14" t="n">
-        <v>2.760584754129232</v>
+        <v>2.760584754129233</v>
       </c>
       <c r="M14" t="n">
-        <v>2.870288553123215</v>
+        <v>2.870288553123216</v>
       </c>
       <c r="N14" t="n">
         <v>2.98052990390803</v>
@@ -5481,19 +5481,19 @@
         <v>3.091171500429402</v>
       </c>
       <c r="P14" t="n">
-        <v>3.202471073937893</v>
+        <v>3.202471073937894</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.314262994297102</v>
+        <v>3.314262994297103</v>
       </c>
       <c r="R14" t="n">
-        <v>3.426516869839018</v>
+        <v>3.426516869839019</v>
       </c>
       <c r="S14" t="n">
-        <v>3.539136984599836</v>
+        <v>3.539136984599837</v>
       </c>
       <c r="T14" t="n">
-        <v>3.652252217386446</v>
+        <v>3.652252217386447</v>
       </c>
       <c r="U14" t="n">
         <v>3.765837915830174</v>
@@ -5795,61 +5795,61 @@
         <v>2.991462534308679</v>
       </c>
       <c r="D19" t="n">
-        <v>3.293407463296261</v>
+        <v>3.293407463296262</v>
       </c>
       <c r="E19" t="n">
         <v>3.606128449896709</v>
       </c>
       <c r="F19" t="n">
-        <v>3.927992937853045</v>
+        <v>3.927992937853046</v>
       </c>
       <c r="G19" t="n">
-        <v>4.256481860907306</v>
+        <v>4.256481860907307</v>
       </c>
       <c r="H19" t="n">
-        <v>4.591191489476702</v>
+        <v>4.591191489476704</v>
       </c>
       <c r="I19" t="n">
-        <v>4.932051143593277</v>
+        <v>4.932051143593278</v>
       </c>
       <c r="J19" t="n">
-        <v>5.279034460475335</v>
+        <v>5.279034460475336</v>
       </c>
       <c r="K19" t="n">
-        <v>5.631817264656844</v>
+        <v>5.631817264656846</v>
       </c>
       <c r="L19" t="n">
-        <v>5.989762195327839</v>
+        <v>5.989762195327841</v>
       </c>
       <c r="M19" t="n">
-        <v>6.351892362928504</v>
+        <v>6.351892362928505</v>
       </c>
       <c r="N19" t="n">
-        <v>6.717936322851683</v>
+        <v>6.717936322851685</v>
       </c>
       <c r="O19" t="n">
-        <v>7.087715589235562</v>
+        <v>7.087715589235565</v>
       </c>
       <c r="P19" t="n">
-        <v>7.460482084989866</v>
+        <v>7.460482084989869</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.835583339184726</v>
+        <v>7.835583339184729</v>
       </c>
       <c r="R19" t="n">
         <v>8.212416229861262</v>
       </c>
       <c r="S19" t="n">
-        <v>8.590959528268137</v>
+        <v>8.590959528268138</v>
       </c>
       <c r="T19" t="n">
-        <v>8.970593242253193</v>
+        <v>8.970593242253194</v>
       </c>
       <c r="U19" t="n">
-        <v>9.351840554227657</v>
+        <v>9.351840554227659</v>
       </c>
       <c r="V19" t="n">
-        <v>9.734230873064867</v>
+        <v>9.734230873064869</v>
       </c>
     </row>
     <row r="20">
@@ -5859,67 +5859,67 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.164700811490113</v>
+        <v>1.164700811490112</v>
       </c>
       <c r="C20" t="n">
-        <v>1.238801210628089</v>
+        <v>1.238801210628088</v>
       </c>
       <c r="D20" t="n">
-        <v>1.314796689813559</v>
+        <v>1.314796689813558</v>
       </c>
       <c r="E20" t="n">
-        <v>1.392507223880453</v>
+        <v>1.392507223880452</v>
       </c>
       <c r="F20" t="n">
-        <v>1.471921025050456</v>
+        <v>1.471921025050455</v>
       </c>
       <c r="G20" t="n">
-        <v>1.552976115303607</v>
+        <v>1.552976115303606</v>
       </c>
       <c r="H20" t="n">
-        <v>1.635538356216982</v>
+        <v>1.635538356216981</v>
       </c>
       <c r="I20" t="n">
-        <v>1.719522918094731</v>
+        <v>1.719522918094729</v>
       </c>
       <c r="J20" t="n">
-        <v>1.805002149091159</v>
+        <v>1.805002149091158</v>
       </c>
       <c r="K20" t="n">
-        <v>1.891684670099021</v>
+        <v>1.89168467009902</v>
       </c>
       <c r="L20" t="n">
-        <v>1.979442616066457</v>
+        <v>1.979442616066456</v>
       </c>
       <c r="M20" t="n">
-        <v>2.068297942259754</v>
+        <v>2.068297942259752</v>
       </c>
       <c r="N20" t="n">
-        <v>2.158205771421945</v>
+        <v>2.158205771421943</v>
       </c>
       <c r="O20" t="n">
-        <v>2.249010066864545</v>
+        <v>2.249010066864543</v>
       </c>
       <c r="P20" t="n">
-        <v>2.340565135326816</v>
+        <v>2.340565135326814</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.432901726038454</v>
+        <v>2.432901726038452</v>
       </c>
       <c r="R20" t="n">
-        <v>2.525948583841131</v>
+        <v>2.52594858384113</v>
       </c>
       <c r="S20" t="n">
-        <v>2.619618556121347</v>
+        <v>2.619618556121345</v>
       </c>
       <c r="T20" t="n">
-        <v>2.713855732468944</v>
+        <v>2.713855732468941</v>
       </c>
       <c r="U20" t="n">
-        <v>2.808537025139759</v>
+        <v>2.808537025139757</v>
       </c>
       <c r="V20" t="n">
-        <v>2.903625234767016</v>
+        <v>2.903625234767013</v>
       </c>
     </row>
     <row r="21">
@@ -5999,28 +5999,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.04663358684175712</v>
+        <v>0.04663358684175711</v>
       </c>
       <c r="C22" t="n">
-        <v>0.04961093781091563</v>
+        <v>0.04961093781091562</v>
       </c>
       <c r="D22" t="n">
-        <v>0.05265187188033419</v>
+        <v>0.05265187188033418</v>
       </c>
       <c r="E22" t="n">
-        <v>0.05575878072995486</v>
+        <v>0.05575878072995485</v>
       </c>
       <c r="F22" t="n">
-        <v>0.05893894601763766</v>
+        <v>0.05893894601763765</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06217398525899921</v>
+        <v>0.0621739852589992</v>
       </c>
       <c r="H22" t="n">
         <v>0.06545434037451443</v>
       </c>
       <c r="I22" t="n">
-        <v>0.06876927208637265</v>
+        <v>0.06876927208637264</v>
       </c>
       <c r="J22" t="n">
         <v>0.07211558960499505</v>
@@ -6029,7 +6029,7 @@
         <v>0.07549392610178079</v>
       </c>
       <c r="L22" t="n">
-        <v>0.07890546064322913</v>
+        <v>0.07890546064322912</v>
       </c>
       <c r="M22" t="n">
         <v>0.08234252998212815</v>
@@ -6038,16 +6038,16 @@
         <v>0.085802068589122</v>
       </c>
       <c r="O22" t="n">
-        <v>0.08928402271369949</v>
+        <v>0.08928402271369947</v>
       </c>
       <c r="P22" t="n">
-        <v>0.09278857439846895</v>
+        <v>0.09278857439846894</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.09631165832488145</v>
+        <v>0.09631165832488142</v>
       </c>
       <c r="R22" t="n">
-        <v>0.09985285849207717</v>
+        <v>0.09985285849207716</v>
       </c>
       <c r="S22" t="n">
         <v>0.1034046199747069</v>
@@ -6279,67 +6279,67 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1446771694804463</v>
+        <v>0.1446771694804462</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1562908759790165</v>
+        <v>0.1562908759790164</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1682978464556016</v>
+        <v>0.1682978464556015</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1806100018794559</v>
+        <v>0.1806100018794558</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1932218882549147</v>
+        <v>0.1932218882549146</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2060901141071245</v>
+        <v>0.2060901141071244</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2192228035739753</v>
+        <v>0.2192228035739752</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2325925968874483</v>
+        <v>0.2325925968874482</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2461985684100958</v>
+        <v>0.2461985684100957</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2600217860857573</v>
+        <v>0.2600217860857571</v>
       </c>
       <c r="L26" t="n">
-        <v>0.2740757407664695</v>
+        <v>0.2740757407664693</v>
       </c>
       <c r="M26" t="n">
-        <v>0.2883328926240348</v>
+        <v>0.2883328926240347</v>
       </c>
       <c r="N26" t="n">
-        <v>0.3028133097939744</v>
+        <v>0.3028133097939742</v>
       </c>
       <c r="O26" t="n">
-        <v>0.3174699711263954</v>
+        <v>0.3174699711263952</v>
       </c>
       <c r="P26" t="n">
-        <v>0.3322689508391604</v>
+        <v>0.3322689508391603</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.3471918132017481</v>
+        <v>0.347191813201748</v>
       </c>
       <c r="R26" t="n">
-        <v>0.3622410783418927</v>
+        <v>0.3622410783418925</v>
       </c>
       <c r="S26" t="n">
-        <v>0.3774222930347113</v>
+        <v>0.3774222930347111</v>
       </c>
       <c r="T26" t="n">
-        <v>0.3927395755930305</v>
+        <v>0.3927395755930303</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4081636448914288</v>
+        <v>0.4081636448914286</v>
       </c>
       <c r="V26" t="n">
-        <v>0.4236602936323685</v>
+        <v>0.4236602936323684</v>
       </c>
     </row>
     <row r="27">
@@ -6349,34 +6349,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.002209134581714421</v>
+        <v>0.00220913458171442</v>
       </c>
       <c r="C27" t="n">
-        <v>0.002879026233730774</v>
+        <v>0.002879026233730773</v>
       </c>
       <c r="D27" t="n">
-        <v>0.003679718583505312</v>
+        <v>0.003679718583505311</v>
       </c>
       <c r="E27" t="n">
-        <v>0.00460690614216454</v>
+        <v>0.004606906142164538</v>
       </c>
       <c r="F27" t="n">
-        <v>0.005657617560708072</v>
+        <v>0.005657617560708071</v>
       </c>
       <c r="G27" t="n">
-        <v>0.006837639808886362</v>
+        <v>0.006837639808886358</v>
       </c>
       <c r="H27" t="n">
-        <v>0.008126097897883863</v>
+        <v>0.008126097897883862</v>
       </c>
       <c r="I27" t="n">
-        <v>0.009499968111570068</v>
+        <v>0.009499968111570067</v>
       </c>
       <c r="J27" t="n">
         <v>0.01094578269510126</v>
       </c>
       <c r="K27" t="n">
-        <v>0.01246012145124636</v>
+        <v>0.01246012145124635</v>
       </c>
       <c r="L27" t="n">
         <v>0.0140258551901793</v>
@@ -6394,13 +6394,13 @@
         <v>0.02068192217028596</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.02240833166763696</v>
+        <v>0.02240833166763695</v>
       </c>
       <c r="R27" t="n">
-        <v>0.0241489625943019</v>
+        <v>0.02414896259430189</v>
       </c>
       <c r="S27" t="n">
-        <v>0.02590364343108757</v>
+        <v>0.02590364343108756</v>
       </c>
       <c r="T27" t="n">
         <v>0.02766376089909568</v>
@@ -6409,7 +6409,7 @@
         <v>0.02942423774354106</v>
       </c>
       <c r="V27" t="n">
-        <v>0.03118471458798645</v>
+        <v>0.03118471458798644</v>
       </c>
     </row>
     <row r="28">
@@ -6923,31 +6923,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10.66860047893945</v>
+        <v>10.66860047893946</v>
       </c>
       <c r="C6" t="n">
-        <v>11.55785494336906</v>
+        <v>11.55785494336907</v>
       </c>
       <c r="D6" t="n">
-        <v>12.47557694714817</v>
+        <v>12.47557694714818</v>
       </c>
       <c r="E6" t="n">
         <v>13.41994671667753</v>
       </c>
       <c r="F6" t="n">
-        <v>14.38811289343002</v>
+        <v>14.38811289343003</v>
       </c>
       <c r="G6" t="n">
         <v>15.37778951742698</v>
       </c>
       <c r="H6" t="n">
-        <v>16.38954894300819</v>
+        <v>16.3895489430082</v>
       </c>
       <c r="I6" t="n">
         <v>17.42001064893307</v>
       </c>
       <c r="J6" t="n">
-        <v>18.46560692706518</v>
+        <v>18.46560692706519</v>
       </c>
       <c r="K6" t="n">
         <v>19.52657241055378</v>
@@ -6956,7 +6956,7 @@
         <v>20.60127297803647</v>
       </c>
       <c r="M6" t="n">
-        <v>21.68674925796221</v>
+        <v>21.68674925796222</v>
       </c>
       <c r="N6" t="n">
         <v>22.78050579175681</v>
@@ -6971,7 +6971,7 @@
         <v>26.10235979354193</v>
       </c>
       <c r="R6" t="n">
-        <v>27.22078164348792</v>
+        <v>27.22078164348794</v>
       </c>
       <c r="S6" t="n">
         <v>28.34543331078372</v>
@@ -7483,19 +7483,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.976845631949711</v>
+        <v>1.976845631949712</v>
       </c>
       <c r="C14" t="n">
         <v>2.081849349990957</v>
       </c>
       <c r="D14" t="n">
-        <v>2.188104611504789</v>
+        <v>2.18810461150479</v>
       </c>
       <c r="E14" t="n">
         <v>2.295323330832604</v>
       </c>
       <c r="F14" t="n">
-        <v>2.403413219425057</v>
+        <v>2.403413219425058</v>
       </c>
       <c r="G14" t="n">
         <v>2.51252995013139</v>
@@ -7504,40 +7504,40 @@
         <v>2.622627299165512</v>
       </c>
       <c r="I14" t="n">
-        <v>2.733700018419262</v>
+        <v>2.733700018419263</v>
       </c>
       <c r="J14" t="n">
         <v>2.845307017950359</v>
       </c>
       <c r="K14" t="n">
-        <v>2.957541467297588</v>
+        <v>2.957541467297589</v>
       </c>
       <c r="L14" t="n">
-        <v>3.070459192395009</v>
+        <v>3.07045919239501</v>
       </c>
       <c r="M14" t="n">
         <v>3.18408823063367</v>
       </c>
       <c r="N14" t="n">
-        <v>3.298276021152284</v>
+        <v>3.298276021152285</v>
       </c>
       <c r="O14" t="n">
-        <v>3.412689145608528</v>
+        <v>3.412689145608529</v>
       </c>
       <c r="P14" t="n">
-        <v>3.527438647348073</v>
+        <v>3.527438647348074</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.64243430985215</v>
+        <v>3.642434309852151</v>
       </c>
       <c r="R14" t="n">
-        <v>3.757691189293593</v>
+        <v>3.757691189293594</v>
       </c>
       <c r="S14" t="n">
-        <v>3.873181142237536</v>
+        <v>3.873181142237538</v>
       </c>
       <c r="T14" t="n">
-        <v>3.988790799070039</v>
+        <v>3.98879079907004</v>
       </c>
       <c r="U14" t="n">
         <v>4.104495775444495</v>
@@ -7833,58 +7833,58 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.513706553421879</v>
+        <v>3.51370655342188</v>
       </c>
       <c r="C19" t="n">
-        <v>3.824599844858119</v>
+        <v>3.82459984485812</v>
       </c>
       <c r="D19" t="n">
         <v>4.145201903881608</v>
       </c>
       <c r="E19" t="n">
-        <v>4.475855141253594</v>
+        <v>4.475855141253595</v>
       </c>
       <c r="F19" t="n">
-        <v>4.815955055718641</v>
+        <v>4.815955055718642</v>
       </c>
       <c r="G19" t="n">
-        <v>5.16411443707871</v>
+        <v>5.164114437078711</v>
       </c>
       <c r="H19" t="n">
-        <v>5.519723165147611</v>
+        <v>5.519723165147612</v>
       </c>
       <c r="I19" t="n">
-        <v>5.880472165905614</v>
+        <v>5.880472165905616</v>
       </c>
       <c r="J19" t="n">
-        <v>6.245233705251998</v>
+        <v>6.245233705252</v>
       </c>
       <c r="K19" t="n">
-        <v>6.613186582587318</v>
+        <v>6.61318658258732</v>
       </c>
       <c r="L19" t="n">
-        <v>6.984307106116701</v>
+        <v>6.984307106116702</v>
       </c>
       <c r="M19" t="n">
-        <v>7.358734096143157</v>
+        <v>7.358734096143158</v>
       </c>
       <c r="N19" t="n">
-        <v>7.73522890789297</v>
+        <v>7.735228907892973</v>
       </c>
       <c r="O19" t="n">
-        <v>8.113717423533046</v>
+        <v>8.113717423533048</v>
       </c>
       <c r="P19" t="n">
         <v>8.494028251263877</v>
       </c>
       <c r="Q19" t="n">
-        <v>8.875659062602585</v>
+        <v>8.875659062602587</v>
       </c>
       <c r="R19" t="n">
         <v>9.258160670222052</v>
       </c>
       <c r="S19" t="n">
-        <v>9.641592729578086</v>
+        <v>9.64159272957809</v>
       </c>
       <c r="T19" t="n">
         <v>10.02597191003129</v>
@@ -7903,67 +7903,67 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.41187304330978</v>
+        <v>1.411873043309779</v>
       </c>
       <c r="C20" t="n">
-        <v>1.489233894541698</v>
+        <v>1.489233894541697</v>
       </c>
       <c r="D20" t="n">
-        <v>1.568541147808513</v>
+        <v>1.568541147808512</v>
       </c>
       <c r="E20" t="n">
-        <v>1.649659349439772</v>
+        <v>1.649659349439771</v>
       </c>
       <c r="F20" t="n">
-        <v>1.732459335614473</v>
+        <v>1.732459335614472</v>
       </c>
       <c r="G20" t="n">
-        <v>1.816861972245382</v>
+        <v>1.81686197224538</v>
       </c>
       <c r="H20" t="n">
-        <v>1.902766925717871</v>
+        <v>1.902766925717869</v>
       </c>
       <c r="I20" t="n">
-        <v>1.990029754471094</v>
+        <v>1.990029754471093</v>
       </c>
       <c r="J20" t="n">
-        <v>2.078510406787404</v>
+        <v>2.078510406787403</v>
       </c>
       <c r="K20" t="n">
-        <v>2.168266604662869</v>
+        <v>2.168266604662867</v>
       </c>
       <c r="L20" t="n">
-        <v>2.259050299465722</v>
+        <v>2.259050299465721</v>
       </c>
       <c r="M20" t="n">
-        <v>2.350745065326426</v>
+        <v>2.350745065326424</v>
       </c>
       <c r="N20" t="n">
-        <v>2.443458386359471</v>
+        <v>2.443458386359469</v>
       </c>
       <c r="O20" t="n">
-        <v>2.536997978825851</v>
+        <v>2.53699797882585</v>
       </c>
       <c r="P20" t="n">
-        <v>2.63116573446072</v>
+        <v>2.631165734460718</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.725835245769512</v>
+        <v>2.72583524576951</v>
       </c>
       <c r="R20" t="n">
-        <v>2.821099794733465</v>
+        <v>2.821099794733462</v>
       </c>
       <c r="S20" t="n">
-        <v>2.916891991643485</v>
+        <v>2.916891991643483</v>
       </c>
       <c r="T20" t="n">
-        <v>3.013071588540651</v>
+        <v>3.013071588540648</v>
       </c>
       <c r="U20" t="n">
-        <v>3.109589660524705</v>
+        <v>3.109589660524703</v>
       </c>
       <c r="V20" t="n">
-        <v>3.206333280500289</v>
+        <v>3.206333280500287</v>
       </c>
     </row>
     <row r="21">
@@ -8043,16 +8043,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.05475183449724142</v>
+        <v>0.05475183449724141</v>
       </c>
       <c r="C22" t="n">
         <v>0.05789137409250738</v>
       </c>
       <c r="D22" t="n">
-        <v>0.06109424143036166</v>
+        <v>0.06109424143036165</v>
       </c>
       <c r="E22" t="n">
-        <v>0.06434866833480235</v>
+        <v>0.06434866833480234</v>
       </c>
       <c r="F22" t="n">
         <v>0.06764735389914327</v>
@@ -8064,25 +8064,25 @@
         <v>0.07437616192013305</v>
       </c>
       <c r="I22" t="n">
-        <v>0.07780217081103033</v>
+        <v>0.07780217081103032</v>
       </c>
       <c r="J22" t="n">
         <v>0.08126633551717101</v>
       </c>
       <c r="K22" t="n">
-        <v>0.08476177386838819</v>
+        <v>0.08476177386838818</v>
       </c>
       <c r="L22" t="n">
         <v>0.0882819420406436</v>
       </c>
       <c r="M22" t="n">
-        <v>0.09181763800573449</v>
+        <v>0.09181763800573446</v>
       </c>
       <c r="N22" t="n">
-        <v>0.09536510067414541</v>
+        <v>0.09536510067414537</v>
       </c>
       <c r="O22" t="n">
-        <v>0.09892683304505963</v>
+        <v>0.09892683304505961</v>
       </c>
       <c r="P22" t="n">
         <v>0.1025007356225674</v>
@@ -8323,7 +8323,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1675993677770336</v>
+        <v>0.1675993677770335</v>
       </c>
       <c r="C26" t="n">
         <v>0.179379084547942</v>
@@ -8332,58 +8332,58 @@
         <v>0.1915102948980009</v>
       </c>
       <c r="E26" t="n">
-        <v>0.203938991197808</v>
+        <v>0.2039389911978079</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2166174578252406</v>
+        <v>0.2166174578252404</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2295718399301434</v>
+        <v>0.2295718399301433</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2427901537609954</v>
+        <v>0.2427901537609952</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2562903575941018</v>
+        <v>0.2562903575941017</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2700480177701111</v>
+        <v>0.2700480177701109</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2840564336979057</v>
+        <v>0.2840564336979056</v>
       </c>
       <c r="L26" t="n">
-        <v>0.2983117647285468</v>
+        <v>0.2983117647285466</v>
       </c>
       <c r="M26" t="n">
-        <v>0.3127730123923606</v>
+        <v>0.3127730123923604</v>
       </c>
       <c r="N26" t="n">
-        <v>0.3274015253127958</v>
+        <v>0.3274015253127956</v>
       </c>
       <c r="O26" t="n">
-        <v>0.3421882390900446</v>
+        <v>0.3421882390900445</v>
       </c>
       <c r="P26" t="n">
-        <v>0.3571134497609978</v>
+        <v>0.3571134497609976</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.3721761682983125</v>
+        <v>0.3721761682983123</v>
       </c>
       <c r="R26" t="n">
-        <v>0.3873787789637982</v>
+        <v>0.3873787789637979</v>
       </c>
       <c r="S26" t="n">
-        <v>0.402696532094882</v>
+        <v>0.4026965320948819</v>
       </c>
       <c r="T26" t="n">
-        <v>0.4181364918067522</v>
+        <v>0.4181364918067519</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4336662346299522</v>
+        <v>0.433666234629952</v>
       </c>
       <c r="V26" t="n">
-        <v>0.449259587594448</v>
+        <v>0.4492595875944478</v>
       </c>
     </row>
     <row r="27">
@@ -8396,13 +8396,13 @@
         <v>0.002967226089443689</v>
       </c>
       <c r="C27" t="n">
-        <v>0.003730047193235629</v>
+        <v>0.003730047193235628</v>
       </c>
       <c r="D27" t="n">
-        <v>0.004599211930176846</v>
+        <v>0.004599211930176845</v>
       </c>
       <c r="E27" t="n">
-        <v>0.005575486020066456</v>
+        <v>0.005575486020066455</v>
       </c>
       <c r="F27" t="n">
         <v>0.006660140749282188</v>
@@ -8426,7 +8426,7 @@
         <v>0.01521201194843853</v>
       </c>
       <c r="M27" t="n">
-        <v>0.01684095161117476</v>
+        <v>0.01684095161117475</v>
       </c>
       <c r="N27" t="n">
         <v>0.01850745301998571</v>
@@ -8435,25 +8435,25 @@
         <v>0.02020113953895114</v>
       </c>
       <c r="P27" t="n">
-        <v>0.02191376857361587</v>
+        <v>0.02191376857361586</v>
       </c>
       <c r="Q27" t="n">
         <v>0.02363741930198341</v>
       </c>
       <c r="R27" t="n">
-        <v>0.0253696598562091</v>
+        <v>0.02536965985620909</v>
       </c>
       <c r="S27" t="n">
         <v>0.02710878218447811</v>
       </c>
       <c r="T27" t="n">
-        <v>0.02885402376350948</v>
+        <v>0.02885402376350947</v>
       </c>
       <c r="U27" t="n">
         <v>0.03060572036138103</v>
       </c>
       <c r="V27" t="n">
-        <v>0.03236033110060988</v>
+        <v>0.03236033110060987</v>
       </c>
     </row>
     <row r="28">
@@ -8976,7 +8976,7 @@
         <v>15.32818938894373</v>
       </c>
       <c r="E6" t="n">
-        <v>16.25291813680808</v>
+        <v>16.25291813680809</v>
       </c>
       <c r="F6" t="n">
         <v>17.20181834253565</v>
@@ -8985,13 +8985,13 @@
         <v>18.17507724421637</v>
       </c>
       <c r="H6" t="n">
-        <v>19.17056845727923</v>
+        <v>19.17056845727924</v>
       </c>
       <c r="I6" t="n">
         <v>20.18211215631831</v>
       </c>
       <c r="J6" t="n">
-        <v>21.2096058895179</v>
+        <v>21.20960588951791</v>
       </c>
       <c r="K6" t="n">
         <v>22.25411097691074</v>
@@ -9003,7 +9003,7 @@
         <v>24.3887468643493</v>
       </c>
       <c r="N6" t="n">
-        <v>25.47397024747125</v>
+        <v>25.47397024747126</v>
       </c>
       <c r="O6" t="n">
         <v>26.57124377825955</v>
@@ -9012,19 +9012,19 @@
         <v>27.6780155530242</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.79230391541818</v>
+        <v>28.79230391541819</v>
       </c>
       <c r="R6" t="n">
         <v>29.91121350139316</v>
       </c>
       <c r="S6" t="n">
-        <v>31.03386283223637</v>
+        <v>31.03386283223638</v>
       </c>
       <c r="T6" t="n">
-        <v>32.15891260071549</v>
+        <v>32.1589126007155</v>
       </c>
       <c r="U6" t="n">
-        <v>33.28811459321075</v>
+        <v>33.28811459321076</v>
       </c>
       <c r="V6" t="n">
         <v>34.4199412922771</v>
@@ -9530,10 +9530,10 @@
         <v>2.138526993041014</v>
       </c>
       <c r="C14" t="n">
-        <v>2.238057246929908</v>
+        <v>2.238057246929909</v>
       </c>
       <c r="D14" t="n">
-        <v>2.339435175506611</v>
+        <v>2.339435175506612</v>
       </c>
       <c r="E14" t="n">
         <v>2.442532163442572</v>
@@ -9542,22 +9542,22 @@
         <v>2.547066278961888</v>
       </c>
       <c r="G14" t="n">
-        <v>2.652930669856391</v>
+        <v>2.652930669856392</v>
       </c>
       <c r="H14" t="n">
-        <v>2.759852099085706</v>
+        <v>2.759852099085707</v>
       </c>
       <c r="I14" t="n">
-        <v>2.867758150686242</v>
+        <v>2.867758150686243</v>
       </c>
       <c r="J14" t="n">
-        <v>2.976788385548543</v>
+        <v>2.976788385548544</v>
       </c>
       <c r="K14" t="n">
         <v>3.086639754348024</v>
       </c>
       <c r="L14" t="n">
-        <v>3.197108396589841</v>
+        <v>3.197108396589842</v>
       </c>
       <c r="M14" t="n">
         <v>3.308256592537528</v>
@@ -9566,28 +9566,28 @@
         <v>3.420116285489294</v>
       </c>
       <c r="O14" t="n">
-        <v>3.532718525276718</v>
+        <v>3.532718525276719</v>
       </c>
       <c r="P14" t="n">
-        <v>3.64592599787012</v>
+        <v>3.645925997870121</v>
       </c>
       <c r="Q14" t="n">
         <v>3.759661175338705</v>
       </c>
       <c r="R14" t="n">
-        <v>3.874135848601337</v>
+        <v>3.874135848601338</v>
       </c>
       <c r="S14" t="n">
-        <v>3.989040070563283</v>
+        <v>3.989040070563284</v>
       </c>
       <c r="T14" t="n">
-        <v>4.104294546167461</v>
+        <v>4.104294546167462</v>
       </c>
       <c r="U14" t="n">
-        <v>4.219941019460226</v>
+        <v>4.219941019460227</v>
       </c>
       <c r="V14" t="n">
-        <v>4.335794050415858</v>
+        <v>4.335794050415859</v>
       </c>
     </row>
     <row r="15">
@@ -9877,49 +9877,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.229093243597581</v>
+        <v>4.229093243597582</v>
       </c>
       <c r="C19" t="n">
-        <v>4.533808662690558</v>
+        <v>4.533808662690559</v>
       </c>
       <c r="D19" t="n">
-        <v>4.846692446989728</v>
+        <v>4.846692446989729</v>
       </c>
       <c r="E19" t="n">
-        <v>5.168405710520239</v>
+        <v>5.168405710520241</v>
       </c>
       <c r="F19" t="n">
-        <v>5.498468816299355</v>
+        <v>5.498468816299357</v>
       </c>
       <c r="G19" t="n">
-        <v>5.835804688580843</v>
+        <v>5.835804688580845</v>
       </c>
       <c r="H19" t="n">
         <v>6.179249747247853</v>
       </c>
       <c r="I19" t="n">
-        <v>6.528875523019486</v>
+        <v>6.528875523019487</v>
       </c>
       <c r="J19" t="n">
-        <v>6.884690767326865</v>
+        <v>6.884690767326867</v>
       </c>
       <c r="K19" t="n">
-        <v>7.246450148050283</v>
+        <v>7.246450148050284</v>
       </c>
       <c r="L19" t="n">
-        <v>7.613638982116565</v>
+        <v>7.613638982116566</v>
       </c>
       <c r="M19" t="n">
-        <v>7.986567909220918</v>
+        <v>7.986567909220921</v>
       </c>
       <c r="N19" t="n">
-        <v>8.364086665762729</v>
+        <v>8.364086665762731</v>
       </c>
       <c r="O19" t="n">
-        <v>8.744820728764767</v>
+        <v>8.744820728764772</v>
       </c>
       <c r="P19" t="n">
-        <v>9.127359293687576</v>
+        <v>9.127359293687579</v>
       </c>
       <c r="Q19" t="n">
         <v>9.511027948574258</v>
@@ -9928,7 +9928,7 @@
         <v>9.89557871210622</v>
       </c>
       <c r="S19" t="n">
-        <v>10.28090997731744</v>
+        <v>10.28090997731745</v>
       </c>
       <c r="T19" t="n">
         <v>10.66688595567047</v>
@@ -9947,67 +9947,67 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.471754715456721</v>
+        <v>1.471754715456719</v>
       </c>
       <c r="C20" t="n">
-        <v>1.548257102692999</v>
+        <v>1.548257102692998</v>
       </c>
       <c r="D20" t="n">
-        <v>1.626781136654544</v>
+        <v>1.626781136654543</v>
       </c>
       <c r="E20" t="n">
-        <v>1.707117175752619</v>
+        <v>1.707117175752618</v>
       </c>
       <c r="F20" t="n">
-        <v>1.789421566144713</v>
+        <v>1.789421566144712</v>
       </c>
       <c r="G20" t="n">
-        <v>1.873470935046857</v>
+        <v>1.873470935046856</v>
       </c>
       <c r="H20" t="n">
-        <v>1.959388415589209</v>
+        <v>1.959388415589207</v>
       </c>
       <c r="I20" t="n">
-        <v>2.046947055088274</v>
+        <v>2.046947055088272</v>
       </c>
       <c r="J20" t="n">
-        <v>2.135937843784181</v>
+        <v>2.13593784378418</v>
       </c>
       <c r="K20" t="n">
-        <v>2.226186264420459</v>
+        <v>2.226186264420457</v>
       </c>
       <c r="L20" t="n">
-        <v>2.317496864646225</v>
+        <v>2.317496864646223</v>
       </c>
       <c r="M20" t="n">
-        <v>2.409767182969585</v>
+        <v>2.409767182969583</v>
       </c>
       <c r="N20" t="n">
-        <v>2.502809802525969</v>
+        <v>2.502809802525967</v>
       </c>
       <c r="O20" t="n">
-        <v>2.596477450191199</v>
+        <v>2.596477450191196</v>
       </c>
       <c r="P20" t="n">
-        <v>2.690648966962129</v>
+        <v>2.690648966962128</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.785392204515747</v>
+        <v>2.785392204515746</v>
       </c>
       <c r="R20" t="n">
-        <v>2.880578217245003</v>
+        <v>2.880578217245001</v>
       </c>
       <c r="S20" t="n">
-        <v>2.976176010831868</v>
+        <v>2.976176010831866</v>
       </c>
       <c r="T20" t="n">
-        <v>3.072098225480065</v>
+        <v>3.072098225480063</v>
       </c>
       <c r="U20" t="n">
-        <v>3.168426201338802</v>
+        <v>3.1684262013388</v>
       </c>
       <c r="V20" t="n">
-        <v>3.265137076036953</v>
+        <v>3.265137076036951</v>
       </c>
     </row>
     <row r="21">
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.05861516918029679</v>
+        <v>0.05861516918029677</v>
       </c>
       <c r="C22" t="n">
         <v>0.06193176499506525</v>
@@ -10096,22 +10096,22 @@
         <v>0.06529980776256662</v>
       </c>
       <c r="E22" t="n">
-        <v>0.06871274012227073</v>
+        <v>0.06871274012227072</v>
       </c>
       <c r="F22" t="n">
         <v>0.07215935141768252</v>
       </c>
       <c r="G22" t="n">
-        <v>0.07563484200876261</v>
+        <v>0.0756348420087626</v>
       </c>
       <c r="H22" t="n">
-        <v>0.07913807190909586</v>
+        <v>0.07913807190909583</v>
       </c>
       <c r="I22" t="n">
-        <v>0.08266295295493137</v>
+        <v>0.08266295295493135</v>
       </c>
       <c r="J22" t="n">
-        <v>0.08620828688148161</v>
+        <v>0.08620828688148158</v>
       </c>
       <c r="K22" t="n">
         <v>0.0897682476287307</v>
@@ -10120,16 +10120,16 @@
         <v>0.09334122355098819</v>
       </c>
       <c r="M22" t="n">
-        <v>0.09692814341024746</v>
+        <v>0.09692814341024744</v>
       </c>
       <c r="N22" t="n">
         <v>0.1005270171697392</v>
       </c>
       <c r="O22" t="n">
-        <v>0.1041358182417494</v>
+        <v>0.1041358182417493</v>
       </c>
       <c r="P22" t="n">
-        <v>0.1077545156014964</v>
+        <v>0.1077545156014963</v>
       </c>
       <c r="Q22" t="n">
         <v>0.1113787791660723</v>
@@ -10367,67 +10367,67 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1782535586689838</v>
+        <v>0.1782535586689837</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1904442081319633</v>
+        <v>0.1904442081319632</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2030012266023888</v>
+        <v>0.2030012266023886</v>
       </c>
       <c r="E26" t="n">
-        <v>0.215934886761575</v>
+        <v>0.2159348867615749</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2292150500167806</v>
+        <v>0.2292150500167805</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2428089294555446</v>
+        <v>0.2428089294555445</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2566852900939814</v>
+        <v>0.2566852900939813</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2708282676760477</v>
+        <v>0.2708282676760476</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2852223471906878</v>
+        <v>0.2852223471906876</v>
       </c>
       <c r="K26" t="n">
-        <v>0.299820972482316</v>
+        <v>0.2998209724823159</v>
       </c>
       <c r="L26" t="n">
-        <v>0.3146145762522265</v>
+        <v>0.3146145762522263</v>
       </c>
       <c r="M26" t="n">
-        <v>0.3296417370171098</v>
+        <v>0.3296417370171097</v>
       </c>
       <c r="N26" t="n">
-        <v>0.3448575823867859</v>
+        <v>0.3448575823867857</v>
       </c>
       <c r="O26" t="n">
-        <v>0.3602083360898866</v>
+        <v>0.3602083360898864</v>
       </c>
       <c r="P26" t="n">
-        <v>0.3756735410846889</v>
+        <v>0.3756735410846888</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.391241452578598</v>
+        <v>0.3912414525785979</v>
       </c>
       <c r="R26" t="n">
-        <v>0.4068856096127183</v>
+        <v>0.4068856096127181</v>
       </c>
       <c r="S26" t="n">
-        <v>0.4226168633207049</v>
+        <v>0.4226168633207046</v>
       </c>
       <c r="T26" t="n">
-        <v>0.4384061857563222</v>
+        <v>0.4384061857563219</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4542428814339385</v>
+        <v>0.4542428814339384</v>
       </c>
       <c r="V26" t="n">
-        <v>0.4701282486403783</v>
+        <v>0.4701282486403781</v>
       </c>
     </row>
     <row r="27">
@@ -10437,7 +10437,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.004236761033168047</v>
+        <v>0.004236761033168046</v>
       </c>
       <c r="C27" t="n">
         <v>0.005124045815168863</v>
@@ -10449,13 +10449,13 @@
         <v>0.007225899731583219</v>
       </c>
       <c r="F27" t="n">
-        <v>0.008435492057788081</v>
+        <v>0.008435492057788079</v>
       </c>
       <c r="G27" t="n">
-        <v>0.009743199143928403</v>
+        <v>0.0097431991439284</v>
       </c>
       <c r="H27" t="n">
-        <v>0.01114745855441496</v>
+        <v>0.01114745855441495</v>
       </c>
       <c r="I27" t="n">
         <v>0.01263566613858382</v>
@@ -10467,16 +10467,16 @@
         <v>0.0157837478444907</v>
       </c>
       <c r="L27" t="n">
-        <v>0.01741987992955615</v>
+        <v>0.01741987992955614</v>
       </c>
       <c r="M27" t="n">
         <v>0.01909359096752225</v>
       </c>
       <c r="N27" t="n">
-        <v>0.020796737570528</v>
+        <v>0.02079673757052799</v>
       </c>
       <c r="O27" t="n">
-        <v>0.02251638947142774</v>
+        <v>0.02251638947142773</v>
       </c>
       <c r="P27" t="n">
         <v>0.02424257938596238</v>
@@ -10485,19 +10485,19 @@
         <v>0.02597566634871375</v>
       </c>
       <c r="R27" t="n">
-        <v>0.02771395008412737</v>
+        <v>0.02771395008412736</v>
       </c>
       <c r="S27" t="n">
-        <v>0.02945504079625168</v>
+        <v>0.02945504079625167</v>
       </c>
       <c r="T27" t="n">
-        <v>0.03119890106110948</v>
+        <v>0.03119890106110947</v>
       </c>
       <c r="U27" t="n">
         <v>0.03294308694632442</v>
       </c>
       <c r="V27" t="n">
-        <v>0.03468856377433554</v>
+        <v>0.03468856377433553</v>
       </c>
     </row>
     <row r="28">
@@ -11014,10 +11014,10 @@
         <v>12.6386601878134</v>
       </c>
       <c r="C6" t="n">
-        <v>13.54004780732875</v>
+        <v>13.54004780732876</v>
       </c>
       <c r="D6" t="n">
-        <v>14.46991310410961</v>
+        <v>14.46991310410962</v>
       </c>
       <c r="E6" t="n">
         <v>15.42346697981122</v>
@@ -11026,13 +11026,13 @@
         <v>16.40022306691394</v>
       </c>
       <c r="G6" t="n">
-        <v>17.39839084407511</v>
+        <v>17.39839084407512</v>
       </c>
       <c r="H6" t="n">
         <v>18.41604077552247</v>
       </c>
       <c r="I6" t="n">
-        <v>19.44778190963101</v>
+        <v>19.44778190963102</v>
       </c>
       <c r="J6" t="n">
         <v>20.49458018871694</v>
@@ -11041,22 +11041,22 @@
         <v>21.55477583087109</v>
       </c>
       <c r="L6" t="n">
-        <v>22.62832175611266</v>
+        <v>22.62832175611267</v>
       </c>
       <c r="M6" t="n">
         <v>23.71567784152046</v>
       </c>
       <c r="N6" t="n">
-        <v>24.81509680843406</v>
+        <v>24.81509680843407</v>
       </c>
       <c r="O6" t="n">
-        <v>25.92117236703961</v>
+        <v>25.92117236703962</v>
       </c>
       <c r="P6" t="n">
-        <v>27.03225317846178</v>
+        <v>27.03225317846179</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.14794065382284</v>
+        <v>28.14794065382285</v>
       </c>
       <c r="R6" t="n">
         <v>29.26806240482343</v>
@@ -11068,7 +11068,7 @@
         <v>31.5219392017789</v>
       </c>
       <c r="U6" t="n">
-        <v>32.65505359697379</v>
+        <v>32.6550535969738</v>
       </c>
       <c r="V6" t="n">
         <v>33.78994137500909</v>
@@ -11574,10 +11574,10 @@
         <v>2.138526993041014</v>
       </c>
       <c r="C14" t="n">
-        <v>2.238057246929908</v>
+        <v>2.238057246929909</v>
       </c>
       <c r="D14" t="n">
-        <v>2.339435175506611</v>
+        <v>2.339435175506612</v>
       </c>
       <c r="E14" t="n">
         <v>2.442532163442572</v>
@@ -11586,22 +11586,22 @@
         <v>2.547066278961888</v>
       </c>
       <c r="G14" t="n">
-        <v>2.652930669856391</v>
+        <v>2.652930669856392</v>
       </c>
       <c r="H14" t="n">
-        <v>2.759852099085706</v>
+        <v>2.759852099085707</v>
       </c>
       <c r="I14" t="n">
-        <v>2.867758150686242</v>
+        <v>2.867758150686243</v>
       </c>
       <c r="J14" t="n">
-        <v>2.976788385548543</v>
+        <v>2.976788385548544</v>
       </c>
       <c r="K14" t="n">
         <v>3.086639754348024</v>
       </c>
       <c r="L14" t="n">
-        <v>3.197108396589841</v>
+        <v>3.197108396589842</v>
       </c>
       <c r="M14" t="n">
         <v>3.308256592537528</v>
@@ -11610,28 +11610,28 @@
         <v>3.420116285489294</v>
       </c>
       <c r="O14" t="n">
-        <v>3.532718525276718</v>
+        <v>3.532718525276719</v>
       </c>
       <c r="P14" t="n">
-        <v>3.64592599787012</v>
+        <v>3.645925997870121</v>
       </c>
       <c r="Q14" t="n">
         <v>3.759661175338705</v>
       </c>
       <c r="R14" t="n">
-        <v>3.874135848601337</v>
+        <v>3.874135848601338</v>
       </c>
       <c r="S14" t="n">
-        <v>3.989040070563283</v>
+        <v>3.989040070563284</v>
       </c>
       <c r="T14" t="n">
-        <v>4.104294546167461</v>
+        <v>4.104294546167462</v>
       </c>
       <c r="U14" t="n">
-        <v>4.219941019460226</v>
+        <v>4.219941019460227</v>
       </c>
       <c r="V14" t="n">
-        <v>4.335794050415858</v>
+        <v>4.335794050415859</v>
       </c>
     </row>
     <row r="15">
@@ -11921,58 +11921,58 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.695337069124958</v>
+        <v>3.695337069124959</v>
       </c>
       <c r="C19" t="n">
-        <v>3.996326395777606</v>
+        <v>3.996326395777607</v>
       </c>
       <c r="D19" t="n">
-        <v>4.30987698200473</v>
+        <v>4.309876982004731</v>
       </c>
       <c r="E19" t="n">
         <v>4.633190726930112</v>
       </c>
       <c r="F19" t="n">
-        <v>4.964951651752627</v>
+        <v>4.964951651752628</v>
       </c>
       <c r="G19" t="n">
         <v>5.305340627946109</v>
       </c>
       <c r="H19" t="n">
-        <v>5.653259892036908</v>
+        <v>5.653259892036909</v>
       </c>
       <c r="I19" t="n">
-        <v>6.006573642602326</v>
+        <v>6.006573642602328</v>
       </c>
       <c r="J19" t="n">
-        <v>6.365234318305542</v>
+        <v>6.365234318305544</v>
       </c>
       <c r="K19" t="n">
-        <v>6.729529330158502</v>
+        <v>6.729529330158504</v>
       </c>
       <c r="L19" t="n">
-        <v>7.097097951888539</v>
+        <v>7.097097951888542</v>
       </c>
       <c r="M19" t="n">
-        <v>7.467105383025933</v>
+        <v>7.467105383025934</v>
       </c>
       <c r="N19" t="n">
-        <v>7.840190080972079</v>
+        <v>7.840190080972081</v>
       </c>
       <c r="O19" t="n">
         <v>8.216520944505271</v>
       </c>
       <c r="P19" t="n">
-        <v>8.595576535951945</v>
+        <v>8.595576535951947</v>
       </c>
       <c r="Q19" t="n">
-        <v>8.97594907410269</v>
+        <v>8.975949074102692</v>
       </c>
       <c r="R19" t="n">
         <v>9.357821895518152</v>
       </c>
       <c r="S19" t="n">
-        <v>9.740606679239914</v>
+        <v>9.740606679239916</v>
       </c>
       <c r="T19" t="n">
         <v>10.12416587354844</v>
@@ -11981,7 +11981,7 @@
         <v>10.50847899816788</v>
       </c>
       <c r="V19" t="n">
-        <v>10.89362813328979</v>
+        <v>10.8936281332898</v>
       </c>
     </row>
     <row r="20">
@@ -11991,67 +11991,67 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.41187304330978</v>
+        <v>1.411873043309779</v>
       </c>
       <c r="C20" t="n">
-        <v>1.489233894541698</v>
+        <v>1.489233894541697</v>
       </c>
       <c r="D20" t="n">
-        <v>1.568541147808513</v>
+        <v>1.568541147808512</v>
       </c>
       <c r="E20" t="n">
-        <v>1.649659349439772</v>
+        <v>1.649659349439771</v>
       </c>
       <c r="F20" t="n">
-        <v>1.732459335614473</v>
+        <v>1.732459335614472</v>
       </c>
       <c r="G20" t="n">
-        <v>1.816861972245382</v>
+        <v>1.81686197224538</v>
       </c>
       <c r="H20" t="n">
-        <v>1.902766925717871</v>
+        <v>1.902766925717869</v>
       </c>
       <c r="I20" t="n">
-        <v>1.990029754471094</v>
+        <v>1.990029754471093</v>
       </c>
       <c r="J20" t="n">
-        <v>2.078510406787404</v>
+        <v>2.078510406787403</v>
       </c>
       <c r="K20" t="n">
-        <v>2.168266604662869</v>
+        <v>2.168266604662867</v>
       </c>
       <c r="L20" t="n">
-        <v>2.259050299465722</v>
+        <v>2.259050299465721</v>
       </c>
       <c r="M20" t="n">
-        <v>2.350745065326426</v>
+        <v>2.350745065326424</v>
       </c>
       <c r="N20" t="n">
-        <v>2.443458386359471</v>
+        <v>2.443458386359469</v>
       </c>
       <c r="O20" t="n">
-        <v>2.536997978825851</v>
+        <v>2.53699797882585</v>
       </c>
       <c r="P20" t="n">
-        <v>2.63116573446072</v>
+        <v>2.631165734460718</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.725835245769512</v>
+        <v>2.72583524576951</v>
       </c>
       <c r="R20" t="n">
-        <v>2.821099794733465</v>
+        <v>2.821099794733462</v>
       </c>
       <c r="S20" t="n">
-        <v>2.916891991643485</v>
+        <v>2.916891991643483</v>
       </c>
       <c r="T20" t="n">
-        <v>3.013071588540651</v>
+        <v>3.013071588540648</v>
       </c>
       <c r="U20" t="n">
-        <v>3.109589660524705</v>
+        <v>3.109589660524703</v>
       </c>
       <c r="V20" t="n">
-        <v>3.206333280500289</v>
+        <v>3.206333280500287</v>
       </c>
     </row>
     <row r="21">
@@ -12131,16 +12131,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.05880132302479157</v>
+        <v>0.05880132302479156</v>
       </c>
       <c r="C22" t="n">
-        <v>0.06199136333755367</v>
+        <v>0.06199136333755366</v>
       </c>
       <c r="D22" t="n">
-        <v>0.06521837454366471</v>
+        <v>0.06521837454366469</v>
       </c>
       <c r="E22" t="n">
-        <v>0.06849772390152878</v>
+        <v>0.06849772390152876</v>
       </c>
       <c r="F22" t="n">
         <v>0.07182180616444893</v>
@@ -12149,34 +12149,34 @@
         <v>0.07518181748891203</v>
       </c>
       <c r="H22" t="n">
-        <v>0.07857360249528784</v>
+        <v>0.07857360249528782</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0819944397348657</v>
+        <v>0.08199443973486567</v>
       </c>
       <c r="J22" t="n">
-        <v>0.08544137913270231</v>
+        <v>0.08544137913270229</v>
       </c>
       <c r="K22" t="n">
-        <v>0.08890931357242415</v>
+        <v>0.08890931357242414</v>
       </c>
       <c r="L22" t="n">
-        <v>0.09239933232692227</v>
+        <v>0.09239933232692225</v>
       </c>
       <c r="M22" t="n">
         <v>0.09590586268526033</v>
       </c>
       <c r="N22" t="n">
-        <v>0.09943092133254279</v>
+        <v>0.09943092133254278</v>
       </c>
       <c r="O22" t="n">
-        <v>0.1029704944129313</v>
+        <v>0.1029704944129312</v>
       </c>
       <c r="P22" t="n">
         <v>0.1065224950896797</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.1100806778281933</v>
+        <v>0.1100806778281932</v>
       </c>
       <c r="R22" t="n">
         <v>0.1136434350149806</v>
@@ -12411,67 +12411,67 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.184767768419983</v>
+        <v>0.1847677684199829</v>
       </c>
       <c r="C26" t="n">
         <v>0.1964225269653737</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2083548159406275</v>
+        <v>0.2083548159406274</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2205921769677601</v>
+        <v>0.22059217696776</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2331072654839115</v>
+        <v>0.2331072654839114</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2458979614583074</v>
+        <v>0.2458979614583072</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2589762068599375</v>
+        <v>0.2589762068599374</v>
       </c>
       <c r="I26" t="n">
-        <v>0.272330991525205</v>
+        <v>0.2723309915252048</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2859697235658444</v>
+        <v>0.2859697235658443</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2998381189941093</v>
+        <v>0.2998381189941092</v>
       </c>
       <c r="L26" t="n">
-        <v>0.3139191230592391</v>
+        <v>0.313919123059239</v>
       </c>
       <c r="M26" t="n">
-        <v>0.3281970002303919</v>
+        <v>0.3281970002303917</v>
       </c>
       <c r="N26" t="n">
-        <v>0.3426612728201299</v>
+        <v>0.3426612728201298</v>
       </c>
       <c r="O26" t="n">
-        <v>0.3573126424153847</v>
+        <v>0.3573126424153845</v>
       </c>
       <c r="P26" t="n">
-        <v>0.3721403403261303</v>
+        <v>0.3721403403261301</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.3871364926592615</v>
+        <v>0.3871364926592613</v>
       </c>
       <c r="R26" t="n">
-        <v>0.402246916210827</v>
+        <v>0.4022469162108268</v>
       </c>
       <c r="S26" t="n">
-        <v>0.4174798910488787</v>
+        <v>0.4174798910488784</v>
       </c>
       <c r="T26" t="n">
-        <v>0.4328097529725928</v>
+        <v>0.4328097529725925</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4482294658819328</v>
+        <v>0.4482294658819326</v>
       </c>
       <c r="V26" t="n">
-        <v>0.4637263129487118</v>
+        <v>0.4637263129487115</v>
       </c>
     </row>
     <row r="27">
@@ -12481,22 +12481,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.00273928138967356</v>
+        <v>0.002739281389673559</v>
       </c>
       <c r="C27" t="n">
         <v>0.003459057611698397</v>
       </c>
       <c r="D27" t="n">
-        <v>0.004297397991589261</v>
+        <v>0.00429739799158926</v>
       </c>
       <c r="E27" t="n">
         <v>0.005274398551522232</v>
       </c>
       <c r="F27" t="n">
-        <v>0.006382887241186012</v>
+        <v>0.00638288724118601</v>
       </c>
       <c r="G27" t="n">
-        <v>0.007598030481310532</v>
+        <v>0.007598030481310531</v>
       </c>
       <c r="H27" t="n">
         <v>0.008919834323921263</v>
@@ -12511,7 +12511,7 @@
         <v>0.01344709256846012</v>
       </c>
       <c r="L27" t="n">
-        <v>0.01507541321928813</v>
+        <v>0.01507541321928812</v>
       </c>
       <c r="M27" t="n">
         <v>0.01673247649091586</v>
@@ -12523,7 +12523,7 @@
         <v>0.02010327418906915</v>
       </c>
       <c r="P27" t="n">
-        <v>0.02181391191821289</v>
+        <v>0.02181391191821288</v>
       </c>
       <c r="Q27" t="n">
         <v>0.02353697507675599</v>
@@ -13055,13 +13055,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.473834875617941</v>
+        <v>9.473834875617944</v>
       </c>
       <c r="C6" t="n">
         <v>10.31377098117907</v>
       </c>
       <c r="D6" t="n">
-        <v>11.18035312801087</v>
+        <v>11.18035312801088</v>
       </c>
       <c r="E6" t="n">
         <v>12.07308810271057</v>
@@ -13076,7 +13076,7 @@
         <v>14.88700334183291</v>
       </c>
       <c r="I6" t="n">
-        <v>15.86618701539299</v>
+        <v>15.866187015393</v>
       </c>
       <c r="J6" t="n">
         <v>16.8614644203413</v>
@@ -13088,13 +13088,13 @@
         <v>18.89750612400416</v>
       </c>
       <c r="M6" t="n">
-        <v>19.93727786400325</v>
+        <v>19.93727786400326</v>
       </c>
       <c r="N6" t="n">
         <v>20.98716695360235</v>
       </c>
       <c r="O6" t="n">
-        <v>22.04524066883393</v>
+        <v>22.04524066883394</v>
       </c>
       <c r="P6" t="n">
         <v>23.11124787244233</v>
@@ -13109,7 +13109,7 @@
         <v>26.36109540248971</v>
       </c>
       <c r="T6" t="n">
-        <v>27.45866699753896</v>
+        <v>27.45866699753897</v>
       </c>
       <c r="U6" t="n">
         <v>28.56101438885737</v>
@@ -13621,7 +13621,7 @@
         <v>1.779421950278706</v>
       </c>
       <c r="D14" t="n">
-        <v>1.875132827366603</v>
+        <v>1.875132827366604</v>
       </c>
       <c r="E14" t="n">
         <v>1.972663004320472</v>
@@ -13630,25 +13630,25 @@
         <v>2.071830064816584</v>
       </c>
       <c r="G14" t="n">
-        <v>2.172633744764615</v>
+        <v>2.172633744764616</v>
       </c>
       <c r="H14" t="n">
-        <v>2.274797354843808</v>
+        <v>2.274797354843809</v>
       </c>
       <c r="I14" t="n">
         <v>2.378467539465624</v>
       </c>
       <c r="J14" t="n">
-        <v>2.483364345677444</v>
+        <v>2.483364345677445</v>
       </c>
       <c r="K14" t="n">
-        <v>2.58936628121774</v>
+        <v>2.589366281217741</v>
       </c>
       <c r="L14" t="n">
         <v>2.696598575923927</v>
       </c>
       <c r="M14" t="n">
-        <v>2.80485503138611</v>
+        <v>2.804855031386111</v>
       </c>
       <c r="N14" t="n">
         <v>2.914140752400655</v>
@@ -13657,25 +13657,25 @@
         <v>3.024121919521677</v>
       </c>
       <c r="P14" t="n">
-        <v>3.134789081245122</v>
+        <v>3.134789081245123</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.246089515930756</v>
+        <v>3.246089515930757</v>
       </c>
       <c r="R14" t="n">
-        <v>3.357955257379984</v>
+        <v>3.357955257379985</v>
       </c>
       <c r="S14" t="n">
-        <v>3.470601592941734</v>
+        <v>3.470601592941735</v>
       </c>
       <c r="T14" t="n">
         <v>3.583868983900383</v>
       </c>
       <c r="U14" t="n">
-        <v>3.697621749153976</v>
+        <v>3.697621749153977</v>
       </c>
       <c r="V14" t="n">
-        <v>3.811706405295869</v>
+        <v>3.81170640529587</v>
       </c>
     </row>
     <row r="15">
@@ -13968,10 +13968,10 @@
         <v>2.531352058090592</v>
       </c>
       <c r="C19" t="n">
-        <v>2.831454340645967</v>
+        <v>2.831454340645968</v>
       </c>
       <c r="D19" t="n">
-        <v>3.14596439678087</v>
+        <v>3.145964396780871</v>
       </c>
       <c r="E19" t="n">
         <v>3.473957705455919</v>
@@ -13980,49 +13980,49 @@
         <v>3.811794104166771</v>
       </c>
       <c r="G19" t="n">
-        <v>4.157889112320906</v>
+        <v>4.157889112320907</v>
       </c>
       <c r="H19" t="n">
-        <v>4.51037138352477</v>
+        <v>4.510371383524771</v>
       </c>
       <c r="I19" t="n">
-        <v>4.867796743565595</v>
+        <v>4.867796743565597</v>
       </c>
       <c r="J19" t="n">
         <v>5.230918309941744</v>
       </c>
       <c r="K19" t="n">
-        <v>5.598788505758564</v>
+        <v>5.598788505758565</v>
       </c>
       <c r="L19" t="n">
         <v>5.970415506153787</v>
       </c>
       <c r="M19" t="n">
-        <v>6.345573807363384</v>
+        <v>6.345573807363386</v>
       </c>
       <c r="N19" t="n">
-        <v>6.724003700962194</v>
+        <v>6.724003700962196</v>
       </c>
       <c r="O19" t="n">
-        <v>7.104555219366419</v>
+        <v>7.104555219366421</v>
       </c>
       <c r="P19" t="n">
         <v>7.486954578758851</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.870714888062457</v>
+        <v>7.870714888062459</v>
       </c>
       <c r="R19" t="n">
         <v>8.256009217083617</v>
       </c>
       <c r="S19" t="n">
-        <v>8.642527337255231</v>
+        <v>8.642527337255233</v>
       </c>
       <c r="T19" t="n">
-        <v>9.029455044864616</v>
+        <v>9.029455044864617</v>
       </c>
       <c r="U19" t="n">
-        <v>9.416501329951629</v>
+        <v>9.416501329951631</v>
       </c>
       <c r="V19" t="n">
         <v>9.803883209142677</v>
@@ -14038,64 +14038,64 @@
         <v>1.408830766166363</v>
       </c>
       <c r="C20" t="n">
-        <v>1.484644062225077</v>
+        <v>1.484644062225076</v>
       </c>
       <c r="D20" t="n">
-        <v>1.56273148539488</v>
+        <v>1.562731485394879</v>
       </c>
       <c r="E20" t="n">
-        <v>1.64305130639816</v>
+        <v>1.643051306398158</v>
       </c>
       <c r="F20" t="n">
-        <v>1.725821500314682</v>
+        <v>1.725821500314681</v>
       </c>
       <c r="G20" t="n">
-        <v>1.810806586543619</v>
+        <v>1.810806586543618</v>
       </c>
       <c r="H20" t="n">
-        <v>1.89763038875193</v>
+        <v>1.897630388751928</v>
       </c>
       <c r="I20" t="n">
-        <v>1.985987505336826</v>
+        <v>1.985987505336825</v>
       </c>
       <c r="J20" t="n">
-        <v>2.075893112906451</v>
+        <v>2.075893112906449</v>
       </c>
       <c r="K20" t="n">
-        <v>2.167230657196447</v>
+        <v>2.167230657196445</v>
       </c>
       <c r="L20" t="n">
-        <v>2.25974666310161</v>
+        <v>2.259746663101609</v>
       </c>
       <c r="M20" t="n">
-        <v>2.353272597372392</v>
+        <v>2.353272597372391</v>
       </c>
       <c r="N20" t="n">
-        <v>2.447573062917582</v>
+        <v>2.44757306291758</v>
       </c>
       <c r="O20" t="n">
-        <v>2.542593493888587</v>
+        <v>2.542593493888585</v>
       </c>
       <c r="P20" t="n">
-        <v>2.638087980445922</v>
+        <v>2.63808798044592</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.7341527313487</v>
+        <v>2.734152731348698</v>
       </c>
       <c r="R20" t="n">
-        <v>2.830675664785951</v>
+        <v>2.830675664785949</v>
       </c>
       <c r="S20" t="n">
-        <v>2.927519205991884</v>
+        <v>2.927519205991883</v>
       </c>
       <c r="T20" t="n">
-        <v>3.024714064439458</v>
+        <v>3.024714064439455</v>
       </c>
       <c r="U20" t="n">
-        <v>3.122006621736489</v>
+        <v>3.122006621736487</v>
       </c>
       <c r="V20" t="n">
-        <v>3.219366410479233</v>
+        <v>3.219366410479231</v>
       </c>
     </row>
     <row r="21">
@@ -14175,25 +14175,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.04808567115893003</v>
+        <v>0.04808567115893002</v>
       </c>
       <c r="C22" t="n">
         <v>0.05102412634289748</v>
       </c>
       <c r="D22" t="n">
-        <v>0.05402961950669064</v>
+        <v>0.05402961950669063</v>
       </c>
       <c r="E22" t="n">
-        <v>0.05710722617297388</v>
+        <v>0.05710722617297387</v>
       </c>
       <c r="F22" t="n">
-        <v>0.06026146063354483</v>
+        <v>0.06026146063354482</v>
       </c>
       <c r="G22" t="n">
         <v>0.06347094267063733</v>
       </c>
       <c r="H22" t="n">
-        <v>0.06673698619000942</v>
+        <v>0.0667369861900094</v>
       </c>
       <c r="I22" t="n">
         <v>0.07005108676387584</v>
@@ -14202,25 +14202,25 @@
         <v>0.07340110261660208</v>
       </c>
       <c r="K22" t="n">
-        <v>0.07679266032974029</v>
+        <v>0.07679266032974026</v>
       </c>
       <c r="L22" t="n">
-        <v>0.08021380967645307</v>
+        <v>0.08021380967645306</v>
       </c>
       <c r="M22" t="n">
-        <v>0.08366141149594668</v>
+        <v>0.08366141149594665</v>
       </c>
       <c r="N22" t="n">
-        <v>0.08713844645281831</v>
+        <v>0.08713844645281829</v>
       </c>
       <c r="O22" t="n">
-        <v>0.09063775958147693</v>
+        <v>0.09063775958147689</v>
       </c>
       <c r="P22" t="n">
-        <v>0.09416008143119525</v>
+        <v>0.09416008143119524</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.09770384664157404</v>
+        <v>0.09770384664157403</v>
       </c>
       <c r="R22" t="n">
         <v>0.1012646618050107</v>
@@ -14235,7 +14235,7 @@
         <v>0.1120160435255995</v>
       </c>
       <c r="V22" t="n">
-        <v>0.1156165470682738</v>
+        <v>0.1156165470682737</v>
       </c>
     </row>
     <row r="23">
@@ -14458,64 +14458,64 @@
         <v>0.1326836888934786</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1440646409485089</v>
+        <v>0.1440646409485088</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1558185982227687</v>
+        <v>0.1558185982227686</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1679224203881656</v>
+        <v>0.1679224203881655</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1803385736784304</v>
+        <v>0.1803385736784303</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1930413916508412</v>
+        <v>0.1930413916508411</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2060575101776316</v>
+        <v>0.2060575101776315</v>
       </c>
       <c r="I26" t="n">
-        <v>0.219381371746151</v>
+        <v>0.2193813717461509</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2329824634961498</v>
+        <v>0.2329824634961496</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2468308732477572</v>
+        <v>0.2468308732477571</v>
       </c>
       <c r="L26" t="n">
-        <v>0.2609182233815985</v>
+        <v>0.2609182233815984</v>
       </c>
       <c r="M26" t="n">
-        <v>0.2752066869506036</v>
+        <v>0.2752066869506034</v>
       </c>
       <c r="N26" t="n">
-        <v>0.2896918065681313</v>
+        <v>0.2896918065681311</v>
       </c>
       <c r="O26" t="n">
-        <v>0.3043497752160412</v>
+        <v>0.304349775216041</v>
       </c>
       <c r="P26" t="n">
-        <v>0.31917899100452</v>
+        <v>0.3191789910045197</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.3341562117182513</v>
+        <v>0.3341562117182512</v>
       </c>
       <c r="R26" t="n">
-        <v>0.3492594419064375</v>
+        <v>0.3492594419064373</v>
       </c>
       <c r="S26" t="n">
-        <v>0.3644772713618565</v>
+        <v>0.3644772713618563</v>
       </c>
       <c r="T26" t="n">
-        <v>0.3798014609847052</v>
+        <v>0.3798014609847048</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3952266660120679</v>
+        <v>0.3952266660120676</v>
       </c>
       <c r="V26" t="n">
-        <v>0.4107407300600948</v>
+        <v>0.4107407300600946</v>
       </c>
     </row>
     <row r="27">
@@ -14531,10 +14531,10 @@
         <v>0.003076258926300941</v>
       </c>
       <c r="D27" t="n">
-        <v>0.003835882642730648</v>
+        <v>0.003835882642730647</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004705440523262477</v>
+        <v>0.004705440523262475</v>
       </c>
       <c r="F27" t="n">
         <v>0.00570560028436849</v>
@@ -14543,7 +14543,7 @@
         <v>0.006816874327269655</v>
       </c>
       <c r="H27" t="n">
-        <v>0.00803156512515169</v>
+        <v>0.008031565125151689</v>
       </c>
       <c r="I27" t="n">
         <v>0.009362325582586466</v>
@@ -14561,7 +14561,7 @@
         <v>0.01543592422474204</v>
       </c>
       <c r="N27" t="n">
-        <v>0.01707086117197678</v>
+        <v>0.01707086117197677</v>
       </c>
       <c r="O27" t="n">
         <v>0.01873637955300867</v>
@@ -14570,7 +14570,7 @@
         <v>0.02042143731598006</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.02212391802209777</v>
+        <v>0.02212391802209776</v>
       </c>
       <c r="R27" t="n">
         <v>0.02383857010160249</v>
